--- a/HR_DATABASE.xlsx
+++ b/HR_DATABASE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EMPLOYESS_BASICS" sheetId="2" r:id="rId1"/>
@@ -5605,8 +5605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9174,7 +9174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
